--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cntf-Il6st.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cntf-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.56096829613312</v>
+        <v>0.5748063333333333</v>
       </c>
       <c r="H2">
-        <v>1.56096829613312</v>
+        <v>1.724419</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1785342934984892</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1785342934984892</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.4754615933908</v>
+        <v>39.96608766666667</v>
       </c>
       <c r="N2">
-        <v>17.4754615933908</v>
+        <v>119.898263</v>
       </c>
       <c r="O2">
-        <v>0.136645058822307</v>
+        <v>0.2616165719423124</v>
       </c>
       <c r="P2">
-        <v>0.136645058822307</v>
+        <v>0.2616165719423124</v>
       </c>
       <c r="Q2">
-        <v>27.27864150757501</v>
+        <v>22.97276030935523</v>
       </c>
       <c r="R2">
-        <v>27.27864150757501</v>
+        <v>206.754842784197</v>
       </c>
       <c r="S2">
-        <v>0.136645058822307</v>
+        <v>0.04670752983921742</v>
       </c>
       <c r="T2">
-        <v>0.136645058822307</v>
+        <v>0.04670752983921742</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.56096829613312</v>
+        <v>0.5748063333333333</v>
       </c>
       <c r="H3">
-        <v>1.56096829613312</v>
+        <v>1.724419</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1785342934984892</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1785342934984892</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.23356023253579</v>
+        <v>85.11961100000001</v>
       </c>
       <c r="N3">
-        <v>84.23356023253579</v>
+        <v>255.358833</v>
       </c>
       <c r="O3">
-        <v>0.6586435346085682</v>
+        <v>0.5571899111219771</v>
       </c>
       <c r="P3">
-        <v>0.6586435346085682</v>
+        <v>0.557189911121977</v>
       </c>
       <c r="Q3">
-        <v>131.4859169934079</v>
+        <v>48.92729149366967</v>
       </c>
       <c r="R3">
-        <v>131.4859169934079</v>
+        <v>440.345623443027</v>
       </c>
       <c r="S3">
-        <v>0.6586435346085682</v>
+        <v>0.09947750712664817</v>
       </c>
       <c r="T3">
-        <v>0.6586435346085682</v>
+        <v>0.09947750712664816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,433 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.5748063333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.724419</v>
+      </c>
+      <c r="I4">
+        <v>0.1785342934984892</v>
+      </c>
+      <c r="J4">
+        <v>0.1785342934984892</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>27.68018833333333</v>
+      </c>
+      <c r="N4">
+        <v>83.040565</v>
+      </c>
+      <c r="O4">
+        <v>0.1811935169357105</v>
+      </c>
+      <c r="P4">
+        <v>0.1811935169357105</v>
+      </c>
+      <c r="Q4">
+        <v>15.91074756185944</v>
+      </c>
+      <c r="R4">
+        <v>143.196728056735</v>
+      </c>
+      <c r="S4">
+        <v>0.0323492565326236</v>
+      </c>
+      <c r="T4">
+        <v>0.0323492565326236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.7888463333333333</v>
+      </c>
+      <c r="H5">
+        <v>2.366539</v>
+      </c>
+      <c r="I5">
+        <v>0.2450149113420932</v>
+      </c>
+      <c r="J5">
+        <v>0.2450149113420933</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>39.96608766666667</v>
+      </c>
+      <c r="N5">
+        <v>119.898263</v>
+      </c>
+      <c r="O5">
+        <v>0.2616165719423124</v>
+      </c>
+      <c r="P5">
+        <v>0.2616165719423124</v>
+      </c>
+      <c r="Q5">
+        <v>31.52710171352856</v>
+      </c>
+      <c r="R5">
+        <v>283.743915421757</v>
+      </c>
+      <c r="S5">
+        <v>0.06409996118006803</v>
+      </c>
+      <c r="T5">
+        <v>0.06409996118006804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.7888463333333333</v>
+      </c>
+      <c r="H6">
+        <v>2.366539</v>
+      </c>
+      <c r="I6">
+        <v>0.2450149113420932</v>
+      </c>
+      <c r="J6">
+        <v>0.2450149113420933</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>85.11961100000001</v>
+      </c>
+      <c r="N6">
+        <v>255.358833</v>
+      </c>
+      <c r="O6">
+        <v>0.5571899111219771</v>
+      </c>
+      <c r="P6">
+        <v>0.557189911121977</v>
+      </c>
+      <c r="Q6">
+        <v>67.14629303210967</v>
+      </c>
+      <c r="R6">
+        <v>604.316637288987</v>
+      </c>
+      <c r="S6">
+        <v>0.13651983667426</v>
+      </c>
+      <c r="T6">
+        <v>0.13651983667426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.7888463333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.366539</v>
+      </c>
+      <c r="I7">
+        <v>0.2450149113420932</v>
+      </c>
+      <c r="J7">
+        <v>0.2450149113420933</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>27.68018833333333</v>
+      </c>
+      <c r="N7">
+        <v>83.040565</v>
+      </c>
+      <c r="O7">
+        <v>0.1811935169357105</v>
+      </c>
+      <c r="P7">
+        <v>0.1811935169357105</v>
+      </c>
+      <c r="Q7">
+        <v>21.83541507272611</v>
+      </c>
+      <c r="R7">
+        <v>196.518735654535</v>
+      </c>
+      <c r="S7">
+        <v>0.04439511348776516</v>
+      </c>
+      <c r="T7">
+        <v>0.04439511348776518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.56096829613312</v>
-      </c>
-      <c r="H4">
-        <v>1.56096829613312</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>26.1804294576054</v>
-      </c>
-      <c r="N4">
-        <v>26.1804294576054</v>
-      </c>
-      <c r="O4">
-        <v>0.2047114065691248</v>
-      </c>
-      <c r="P4">
-        <v>0.2047114065691248</v>
-      </c>
-      <c r="Q4">
-        <v>40.86682036247164</v>
-      </c>
-      <c r="R4">
-        <v>40.86682036247164</v>
-      </c>
-      <c r="S4">
-        <v>0.2047114065691248</v>
-      </c>
-      <c r="T4">
-        <v>0.2047114065691248</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.855932333333334</v>
+      </c>
+      <c r="H8">
+        <v>5.567797000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.5764507951594176</v>
+      </c>
+      <c r="J8">
+        <v>0.5764507951594177</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>39.96608766666667</v>
+      </c>
+      <c r="N8">
+        <v>119.898263</v>
+      </c>
+      <c r="O8">
+        <v>0.2616165719423124</v>
+      </c>
+      <c r="P8">
+        <v>0.2616165719423124</v>
+      </c>
+      <c r="Q8">
+        <v>74.17435433740124</v>
+      </c>
+      <c r="R8">
+        <v>667.5691890366112</v>
+      </c>
+      <c r="S8">
+        <v>0.150809080923027</v>
+      </c>
+      <c r="T8">
+        <v>0.150809080923027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.855932333333334</v>
+      </c>
+      <c r="H9">
+        <v>5.567797000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.5764507951594176</v>
+      </c>
+      <c r="J9">
+        <v>0.5764507951594177</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>85.11961100000001</v>
+      </c>
+      <c r="N9">
+        <v>255.358833</v>
+      </c>
+      <c r="O9">
+        <v>0.5571899111219771</v>
+      </c>
+      <c r="P9">
+        <v>0.557189911121977</v>
+      </c>
+      <c r="Q9">
+        <v>157.9762382556557</v>
+      </c>
+      <c r="R9">
+        <v>1421.786144300901</v>
+      </c>
+      <c r="S9">
+        <v>0.3211925673210689</v>
+      </c>
+      <c r="T9">
+        <v>0.3211925673210689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.855932333333334</v>
+      </c>
+      <c r="H10">
+        <v>5.567797000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.5764507951594176</v>
+      </c>
+      <c r="J10">
+        <v>0.5764507951594177</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>27.68018833333333</v>
+      </c>
+      <c r="N10">
+        <v>83.040565</v>
+      </c>
+      <c r="O10">
+        <v>0.1811935169357105</v>
+      </c>
+      <c r="P10">
+        <v>0.1811935169357105</v>
+      </c>
+      <c r="Q10">
+        <v>51.37255652058945</v>
+      </c>
+      <c r="R10">
+        <v>462.353008685305</v>
+      </c>
+      <c r="S10">
+        <v>0.1044491469153217</v>
+      </c>
+      <c r="T10">
+        <v>0.1044491469153217</v>
       </c>
     </row>
   </sheetData>
